--- a/data/api_demo.xlsx
+++ b/data/api_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -46,7 +46,7 @@
     <t>http://api.s.youcheyihou.com/testapi/iyourcar_autobuy/backend/chain_corp/list</t>
   </si>
   <si>
-    <t>公司管理列表</t>
+    <t>公司名查询</t>
   </si>
   <si>
     <t>post</t>
@@ -55,10 +55,31 @@
     <t>{"page_id":1,"page_size":10,"querys":[{"col":"name","cond":"like","val":"深圳市科治好连锁有限公司"}]}</t>
   </si>
   <si>
-    <t>[{"expr":"$..id","expected":[148],"type":"eq"}]</t>
+    <t>[{"expected":[148]}]</t>
+  </si>
+  <si>
+    <t>[{"expr":"$..id","type":"eq"}]</t>
   </si>
   <si>
     <t>/Users/luzhihao/api_test/report/result/result.txt</t>
+  </si>
+  <si>
+    <t>https://api.s.youcheyihou.com/testapi/iyourcar_autobuy/backend/car_source/list</t>
+  </si>
+  <si>
+    <t>采购单id筛选</t>
+  </si>
+  <si>
+    <t>{"page_id":1,"page_size":10,"querys":[{"col":"id","cond":"equalTo","val":"2080"}]}</t>
+  </si>
+  <si>
+    <t>[{"expected":[2080]},{"expected":[0]}]</t>
+  </si>
+  <si>
+    <t>[
+{"expr":"$..id","type":"eq"},
+{"expr":"$..is_purchase","type":"eq"}
+]</t>
   </si>
 </sst>
 </file>
@@ -66,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +123,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,6 +132,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,6 +155,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -132,14 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -147,14 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -164,68 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,61 +261,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,121 +423,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +460,47 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,13 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,174 +552,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,19 +683,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1030,8 +1051,8 @@
   <sheetPr/>
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6"/>
@@ -1097,9 +1118,11 @@
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7"/>
       <c r="M2" s="8"/>
@@ -1107,16 +1130,32 @@
       <c r="U2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" ht="76" customHeight="1" spans="1:13">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="M3" s="8"/>
     </row>
@@ -1233,6 +1272,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://api.s.youcheyihou.com/testapi/iyourcar_autobuy/backend/chain_corp/list" tooltip="http://api.s.youcheyihou.com/testapi/iyourcar_autobuy/backend/chain_corp/list"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://api.s.youcheyihou.com/testapi/iyourcar_autobuy/backend/car_source/list"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
